--- a/Opcodes.xlsx
+++ b/Opcodes.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -524,7 +525,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,8 +599,8 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>64*VLOOKUP(B4,I:J,2,FALSE)+16*C4+4*D4+E4</f>
-        <v>1261</v>
+        <f>64*VLOOKUP(B4,I:J,2,FALSE)+16*C4+4*D4+2*E4</f>
+        <v>1260</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
@@ -611,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>2</v>
